--- a/instance_info.xlsx
+++ b/instance_info.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Instances" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$481</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Instances!$A$1:$H$481</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,1450 +49,1450 @@
     <t xml:space="preserve">seed</t>
   </si>
   <si>
-    <t xml:space="preserve">bpps_c200n25m5v10_30s2_20f0_seed0.txt</t>
+    <t xml:space="preserve">bpps_d200n25m5w10_30s2_20f0_seed0.txt</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">bpps_c200n25m5v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v10_30s20_40f0_seed0.txt</t>
+    <t xml:space="preserve">bpps_d200n25m5w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w10_30s20_40f0_seed0.txt</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
   </si>
   <si>
-    <t xml:space="preserve">bpps_c200n25m5v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m5v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m5v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m5v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n25m10v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n25m10v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n25m10v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m5v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m5v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m5v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n50m10v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n50m10v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n50m10v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m5v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m5v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m5v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n75m10v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n75m10v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n75m10v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m5v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m5v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m5v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n100m10v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n100m10v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n100m10v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m5v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m5v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m5v500_1500s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v10_30s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v10_30s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v10_30s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v10_30s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v10_30s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v10_30s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v10_30s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v10_30s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v30_60s2_20f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v30_60s2_20f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v30_60s2_20f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v30_60s2_20f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v30_60s20_40f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v30_60s20_40f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v30_60s20_40f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c200n200m10v30_60s20_40f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v150_300s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v150_300s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v150_300s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v150_300s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v150_300s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v150_300s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v150_300s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v150_300s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v50_150s10_100f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v50_150s10_100f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v50_150s10_100f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v50_150s10_100f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v50_150s100_200f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v50_150s100_200f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v50_150s100_200f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c1000n200m10v50_150s100_200f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v1500_3000s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v1500_3000s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v1500_3000s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v1500_3000s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v1500_3000s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v1500_3000s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v1500_3000s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v1500_3000s1000_2000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v500_1500s100_1000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v500_1500s100_1000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v500_1500s100_1000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v500_1500s100_1000f1_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v500_1500s1000_2000f0_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v500_1500s1000_2000f0_seed1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v500_1500s1000_2000f1_seed0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpps_c10000n200m10v500_1500s1000_2000f1_seed1.txt</t>
+    <t xml:space="preserve">bpps_d200n25m5w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m5w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m5w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m5w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n25m10w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n25m10w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n25m10w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m5w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m5w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m5w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n50m10w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n50m10w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n50m10w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m5w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m5w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m5w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n75m10w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n75m10w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n75m10w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m5w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m5w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m5w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n100m10w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n100m10w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n100m10w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m5w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m5w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m5w500_1500s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w10_30s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w10_30s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w10_30s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w10_30s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w10_30s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w10_30s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w10_30s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w10_30s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w30_60s2_20f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w30_60s2_20f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w30_60s2_20f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w30_60s2_20f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w30_60s20_40f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w30_60s20_40f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w30_60s20_40f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d200n200m10w30_60s20_40f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w150_300s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w150_300s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w150_300s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w150_300s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w150_300s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w150_300s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w150_300s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w150_300s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w50_150s10_100f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w50_150s10_100f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w50_150s10_100f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w50_150s10_100f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w50_150s100_200f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w50_150s100_200f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w50_150s100_200f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d1000n200m10w50_150s100_200f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w1500_3000s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w1500_3000s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w1500_3000s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w1500_3000s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w1500_3000s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w1500_3000s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w1500_3000s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w1500_3000s1000_2000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w500_1500s100_1000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w500_1500s100_1000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w500_1500s100_1000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w500_1500s100_1000f1_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w500_1500s1000_2000f0_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w500_1500s1000_2000f0_seed1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w500_1500s1000_2000f1_seed0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpps_d10000n200m10w500_1500s1000_2000f1_seed1.txt</t>
   </si>
 </sst>
 </file>
@@ -1810,8 +1810,8 @@
   </sheetPr>
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A481" activeCellId="0" sqref="A2:A481"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1819,7 +1819,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.06"/>

--- a/instance_info.xlsx
+++ b/instance_info.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">m</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">item_size</t>
@@ -1810,8 +1810,8 @@
   </sheetPr>
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A481"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
